--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-928643.3448843766</v>
+        <v>-930724.0862776757</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365544.372062215</v>
+        <v>2365544.372062216</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0313416251956</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244.5627323611424</v>
+        <v>208.8115320378055</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5627323611424</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.28796821707176</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
         <v>10.69576364311372</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>6.184876341468287</v>
       </c>
       <c r="U3" t="n">
-        <v>134.7442740365129</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>113.6616009681633</v>
       </c>
       <c r="T4" t="n">
-        <v>135.1613884042816</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.8592676367928</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>83.70888068730594</v>
       </c>
       <c r="G5" t="n">
-        <v>15.21022140383137</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="R5" t="n">
         <v>144.0576027644701</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>138.5106747089388</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>147.02684479697</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>69.40990664858349</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.41402108404401</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>268.9877527517551</v>
+        <v>351.2180880263224</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.91438626613414</v>
+        <v>413.9143862661342</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>325.2563498869366</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>62.6580987960964</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>177.3830154996371</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>2.571573944105303</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.6006837567287</v>
       </c>
       <c r="H9" t="n">
-        <v>86.5884146351152</v>
+        <v>105.061237389684</v>
       </c>
       <c r="I9" t="n">
-        <v>63.8210089878919</v>
+        <v>63.82100898789186</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>54.03700212563241</v>
+        <v>54.03700212563234</v>
       </c>
       <c r="S9" t="n">
         <v>157.8853663825613</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.4297680589852</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>34.01383490015903</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>179.9761293559805</v>
       </c>
     </row>
     <row r="11">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.913873298645058</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.2446350430723</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>49.14757544257655</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.81262041878014</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>20.58581884348019</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>279.2427635650251</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,13 +2084,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>187.8326399421082</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>148.0924829205253</v>
+        <v>80.27375167670624</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28825847926542</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155369</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U25" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X25" t="n">
         <v>207.3085698461848</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037169</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.19733215279861</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141967</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094047</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155369</v>
+        <v>121.9893325531578</v>
       </c>
       <c r="U28" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D31" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.06888542943095</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>118.8733511442659</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
         <v>130.5127428246838</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S31" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.836266855725</v>
+        <v>267.8362668557249</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809757</v>
+        <v>233.7365577809756</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>268.1219127937386</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>539.8773383691645</v>
+        <v>475.7042164136626</v>
       </c>
       <c r="C2" t="n">
-        <v>539.8773383691645</v>
+        <v>475.7042164136626</v>
       </c>
       <c r="D2" t="n">
-        <v>292.8442753781115</v>
+        <v>264.7834769815358</v>
       </c>
       <c r="E2" t="n">
-        <v>292.8442753781115</v>
+        <v>264.7834769815358</v>
       </c>
       <c r="F2" t="n">
-        <v>45.81121238705855</v>
+        <v>257.8379762323324</v>
       </c>
       <c r="G2" t="n">
-        <v>30.36882024860223</v>
+        <v>242.3955840938761</v>
       </c>
       <c r="H2" t="n">
-        <v>30.36882024860223</v>
+        <v>242.3955840938761</v>
       </c>
       <c r="I2" t="n">
         <v>30.36882024860223</v>
@@ -4367,13 +4367,13 @@
         <v>969.7703423957685</v>
       </c>
       <c r="W2" t="n">
-        <v>969.7703423957685</v>
+        <v>722.7372794047155</v>
       </c>
       <c r="X2" t="n">
-        <v>969.7703423957685</v>
+        <v>475.7042164136626</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.7372794047155</v>
+        <v>475.7042164136626</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.2878619142265</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="C3" t="n">
-        <v>158.2878619142265</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="D3" t="n">
-        <v>158.2878619142265</v>
+        <v>279.3916219496347</v>
       </c>
       <c r="E3" t="n">
-        <v>158.2878619142265</v>
+        <v>279.3916219496347</v>
       </c>
       <c r="F3" t="n">
-        <v>158.2878619142265</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="H3" t="n">
         <v>19.56501858889139</v>
@@ -4410,19 +4410,19 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>20.23786849471563</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>251.8996143319767</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M3" t="n">
-        <v>494.0167193695077</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N3" t="n">
-        <v>736.1338244070387</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O3" t="n">
-        <v>978.2509294445697</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P3" t="n">
         <v>978.2509294445697</v>
@@ -4434,25 +4434,25 @@
         <v>877.5769898880285</v>
       </c>
       <c r="S3" t="n">
-        <v>704.3079091975965</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="T3" t="n">
-        <v>502.1534879887895</v>
+        <v>871.3296400481615</v>
       </c>
       <c r="U3" t="n">
-        <v>366.0481606791805</v>
+        <v>871.3296400481615</v>
       </c>
       <c r="V3" t="n">
-        <v>366.0481606791805</v>
+        <v>636.1775318164188</v>
       </c>
       <c r="W3" t="n">
-        <v>366.0481606791805</v>
+        <v>636.1775318164188</v>
       </c>
       <c r="X3" t="n">
-        <v>366.0481606791805</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.2878619142265</v>
+        <v>428.3260316108859</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="C4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="D4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="E4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="F4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="G4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="H4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="I4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="J4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="K4" t="n">
-        <v>839.7847015000262</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>868.0739335605019</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>908.290085419765</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>952.984603497187</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>978.2509294445697</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>976.3113564538461</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="Q4" t="n">
-        <v>976.3113564538461</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="R4" t="n">
-        <v>976.3113564538461</v>
+        <v>156.0916735427112</v>
       </c>
       <c r="S4" t="n">
-        <v>976.3113564538461</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="T4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="U4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="V4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="W4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="X4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="Y4" t="n">
-        <v>839.7847015000262</v>
+        <v>41.28197559507151</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.4074064933379</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="C5" t="n">
-        <v>522.4074064933379</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="D5" t="n">
-        <v>522.4074064933379</v>
+        <v>641.5543613459231</v>
       </c>
       <c r="E5" t="n">
-        <v>522.4074064933379</v>
+        <v>375.6533169502999</v>
       </c>
       <c r="F5" t="n">
-        <v>515.4619057441345</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="G5" t="n">
-        <v>500.0980457402644</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H5" t="n">
-        <v>234.1970013446415</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O5" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415451</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S5" t="n">
-        <v>907.4554057415451</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T5" t="n">
-        <v>907.4554057415451</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U5" t="n">
-        <v>653.5783839042398</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="V5" t="n">
-        <v>653.5783839042398</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="W5" t="n">
-        <v>653.5783839042398</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="X5" t="n">
-        <v>653.5783839042398</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="Y5" t="n">
-        <v>653.5783839042398</v>
+        <v>907.4554057415462</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329.2312273828401</v>
+        <v>650.2188146370821</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2312273828401</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="D6" t="n">
-        <v>180.2968177215888</v>
+        <v>326.8313756947039</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613333</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K6" t="n">
-        <v>154.3302328992135</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L6" t="n">
-        <v>394.933760794076</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M6" t="n">
-        <v>394.933760794076</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="N6" t="n">
-        <v>524.903632156528</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="O6" t="n">
-        <v>785.3166962490201</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271187</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W6" t="n">
-        <v>913.0583633733949</v>
+        <v>798.730779078466</v>
       </c>
       <c r="X6" t="n">
-        <v>705.206863167862</v>
+        <v>798.730779078466</v>
       </c>
       <c r="Y6" t="n">
-        <v>497.4465644029081</v>
+        <v>650.2188146370821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="D7" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="E7" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="F7" t="n">
-        <v>112.3979106539025</v>
+        <v>35.61897997274346</v>
       </c>
       <c r="G7" t="n">
-        <v>112.3979106539025</v>
+        <v>35.61897997274346</v>
       </c>
       <c r="H7" t="n">
-        <v>112.3979106539025</v>
+        <v>35.61897997274346</v>
       </c>
       <c r="I7" t="n">
-        <v>112.3979106539025</v>
+        <v>35.61897997274346</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613333</v>
+        <v>35.61897997274346</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>712.6004933975669</v>
+        <v>1914.031862320563</v>
       </c>
       <c r="C8" t="n">
-        <v>343.6379764571552</v>
+        <v>1545.069345380151</v>
       </c>
       <c r="D8" t="n">
-        <v>71.9331756978065</v>
+        <v>1190.303599899017</v>
       </c>
       <c r="E8" t="n">
-        <v>71.9331756978065</v>
+        <v>804.5153473007729</v>
       </c>
       <c r="F8" t="n">
-        <v>64.98767494860303</v>
+        <v>797.5698465515694</v>
       </c>
       <c r="G8" t="n">
-        <v>50.9327393262453</v>
+        <v>379.4745068888076</v>
       </c>
       <c r="H8" t="n">
-        <v>50.9327393262453</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="I8" t="n">
-        <v>50.9327393262453</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="J8" t="n">
-        <v>155.7591739168706</v>
+        <v>155.7591739168709</v>
       </c>
       <c r="K8" t="n">
-        <v>433.6116301659911</v>
+        <v>433.6116301659915</v>
       </c>
       <c r="L8" t="n">
-        <v>830.5887990800932</v>
+        <v>830.5887990800936</v>
       </c>
       <c r="M8" t="n">
-        <v>1288.908934281616</v>
+        <v>1288.908934281617</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.013170883836</v>
+        <v>1740.013170883838</v>
       </c>
       <c r="O8" t="n">
-        <v>2120.790471866535</v>
+        <v>2120.790471866536</v>
       </c>
       <c r="P8" t="n">
-        <v>2408.100705753523</v>
+        <v>2408.100705753525</v>
       </c>
       <c r="Q8" t="n">
-        <v>2546.636966312265</v>
+        <v>2546.636966312267</v>
       </c>
       <c r="R8" t="n">
-        <v>2546.636966312265</v>
+        <v>2483.345957427321</v>
       </c>
       <c r="S8" t="n">
-        <v>2546.636966312265</v>
+        <v>2304.171194296374</v>
       </c>
       <c r="T8" t="n">
-        <v>2546.636966312265</v>
+        <v>2304.171194296374</v>
       </c>
       <c r="U8" t="n">
-        <v>2546.636966312265</v>
+        <v>2304.171194296374</v>
       </c>
       <c r="V8" t="n">
-        <v>2215.574078968694</v>
+        <v>2304.171194296374</v>
       </c>
       <c r="W8" t="n">
-        <v>1862.80542369858</v>
+        <v>2304.171194296374</v>
       </c>
       <c r="X8" t="n">
-        <v>1489.3396654375</v>
+        <v>2304.171194296374</v>
       </c>
       <c r="Y8" t="n">
-        <v>1099.200333461689</v>
+        <v>1914.031862320563</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.0209019775043</v>
+        <v>832.0209019775061</v>
       </c>
       <c r="C9" t="n">
-        <v>657.5678726963773</v>
+        <v>657.5678726963791</v>
       </c>
       <c r="D9" t="n">
-        <v>508.6334630351261</v>
+        <v>508.6334630351279</v>
       </c>
       <c r="E9" t="n">
-        <v>349.3960080296706</v>
+        <v>506.0359135966377</v>
       </c>
       <c r="F9" t="n">
-        <v>202.8614500565555</v>
+        <v>359.5013556235226</v>
       </c>
       <c r="G9" t="n">
-        <v>202.8614500565555</v>
+        <v>221.5208669803623</v>
       </c>
       <c r="H9" t="n">
         <v>115.3984049705806</v>
       </c>
       <c r="I9" t="n">
-        <v>50.9327393262453</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="J9" t="n">
-        <v>119.6732659524489</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="K9" t="n">
-        <v>363.7826179014327</v>
+        <v>295.0420912752293</v>
       </c>
       <c r="L9" t="n">
-        <v>753.4221628487727</v>
+        <v>594.1125643696648</v>
       </c>
       <c r="M9" t="n">
-        <v>1260.092355332586</v>
+        <v>1100.782756853479</v>
       </c>
       <c r="N9" t="n">
-        <v>1795.879613554692</v>
+        <v>1636.570015075585</v>
       </c>
       <c r="O9" t="n">
-        <v>2219.604602039584</v>
+        <v>2060.295003560477</v>
       </c>
       <c r="P9" t="n">
-        <v>2542.678193876167</v>
+        <v>2383.36859539706</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.636966312265</v>
+        <v>2546.636966312267</v>
       </c>
       <c r="R9" t="n">
-        <v>2492.054135882333</v>
+        <v>2492.054135882335</v>
       </c>
       <c r="S9" t="n">
-        <v>2332.57396781914</v>
+        <v>2332.573967819142</v>
       </c>
       <c r="T9" t="n">
-        <v>2133.411756930152</v>
+        <v>2133.411756930154</v>
       </c>
       <c r="U9" t="n">
-        <v>1905.237502928003</v>
+        <v>1905.237502928005</v>
       </c>
       <c r="V9" t="n">
-        <v>1670.085394696261</v>
+        <v>1670.085394696262</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.848037968059</v>
+        <v>1415.848037968061</v>
       </c>
       <c r="X9" t="n">
-        <v>1207.996537762526</v>
+        <v>1207.996537762528</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000.236238997572</v>
+        <v>1000.236238997574</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.7222341011073</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="C10" t="n">
-        <v>507.7860511732005</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="D10" t="n">
-        <v>507.7860511732005</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="E10" t="n">
-        <v>359.8729575908073</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="F10" t="n">
-        <v>212.983010092897</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9327393262453</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="H10" t="n">
-        <v>50.9327393262453</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="I10" t="n">
-        <v>50.9327393262453</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="J10" t="n">
-        <v>50.9327393262453</v>
+        <v>50.93273932624534</v>
       </c>
       <c r="K10" t="n">
-        <v>100.5165538294664</v>
+        <v>100.5165538294665</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4931998867069</v>
+        <v>219.4931998867071</v>
       </c>
       <c r="M10" t="n">
-        <v>355.3265144918557</v>
+        <v>355.3265144918561</v>
       </c>
       <c r="N10" t="n">
-        <v>493.3646328999334</v>
+        <v>493.3646328999339</v>
       </c>
       <c r="O10" t="n">
-        <v>604.8488818521896</v>
+        <v>604.8488818521902</v>
       </c>
       <c r="P10" t="n">
-        <v>676.7222341011073</v>
+        <v>676.722234101108</v>
       </c>
       <c r="Q10" t="n">
-        <v>676.7222341011073</v>
+        <v>642.3648251110484</v>
       </c>
       <c r="R10" t="n">
-        <v>676.7222341011073</v>
+        <v>642.3648251110484</v>
       </c>
       <c r="S10" t="n">
-        <v>676.7222341011073</v>
+        <v>642.3648251110484</v>
       </c>
       <c r="T10" t="n">
-        <v>676.7222341011073</v>
+        <v>642.3648251110484</v>
       </c>
       <c r="U10" t="n">
-        <v>676.7222341011073</v>
+        <v>642.3648251110484</v>
       </c>
       <c r="V10" t="n">
-        <v>676.7222341011073</v>
+        <v>642.3648251110484</v>
       </c>
       <c r="W10" t="n">
-        <v>676.7222341011073</v>
+        <v>642.3648251110484</v>
       </c>
       <c r="X10" t="n">
-        <v>676.7222341011073</v>
+        <v>414.375274213031</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.7222341011073</v>
+        <v>232.5812041564851</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,13 +5033,13 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3351829786181</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507113</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1496.983065205736</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1297.063055121288</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.436841221466</v>
+        <v>1297.063055121288</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.436841221466</v>
+        <v>1297.063055121288</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.752353015579</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3351829786181</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3351829786181</v>
+        <v>1042.378566915401</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3351829786181</v>
+        <v>1042.378566915401</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383757</v>
+        <v>760.7169704793941</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383757</v>
+        <v>591.7807875514873</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383757</v>
+        <v>441.6641481391515</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383757</v>
+        <v>293.7510545567584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>146.861107058848</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>146.861107058848</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5434,7 +5434,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1405.166148922771</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1405.166148922771</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1150.481660716884</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>861.0644906799232</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>633.0749397819059</v>
+        <v>981.5095496229243</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.2823606383757</v>
+        <v>760.7169704793941</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>286.9470307957485</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C19" t="n">
-        <v>118.0108478678416</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D19" t="n">
-        <v>118.0108478678416</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E19" t="n">
-        <v>118.0108478678416</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>118.0108478678416</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5677,19 +5677,19 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609662</v>
+        <v>755.1831334811257</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240055</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X19" t="n">
-        <v>468.5954956259882</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y19" t="n">
-        <v>468.5954956259882</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,25 +5750,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5835,13 +5835,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1309.18633122244</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1085.400916011945</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>796.2722772255034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>796.2722772255034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6066,16 +6066,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>732.169830515405</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
         <v>1843.901542059518</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>289.5208706519936</v>
+        <v>271.2493253977867</v>
       </c>
       <c r="C25" t="n">
-        <v>289.5208706519936</v>
+        <v>271.2493253977867</v>
       </c>
       <c r="D25" t="n">
-        <v>289.5208706519936</v>
+        <v>271.2493253977867</v>
       </c>
       <c r="E25" t="n">
-        <v>289.5208706519936</v>
+        <v>271.2493253977867</v>
       </c>
       <c r="F25" t="n">
-        <v>289.5208706519936</v>
+        <v>271.2493253977867</v>
       </c>
       <c r="G25" t="n">
-        <v>139.9325040656045</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9325040656045</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116197</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K25" t="n">
         <v>296.2193375436549</v>
@@ -6163,7 +6163,7 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q25" t="n">
         <v>1644.652868057293</v>
@@ -6172,25 +6172,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.652868057293</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T25" t="n">
-        <v>1439.454407940589</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U25" t="n">
-        <v>1168.912724247937</v>
+        <v>987.5796692572807</v>
       </c>
       <c r="V25" t="n">
-        <v>932.8151911358405</v>
+        <v>751.4821361451841</v>
       </c>
       <c r="W25" t="n">
-        <v>661.98497619267</v>
+        <v>480.6519212020137</v>
       </c>
       <c r="X25" t="n">
-        <v>452.5823803884431</v>
+        <v>271.2493253977867</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5823803884431</v>
+        <v>271.2493253977867</v>
       </c>
     </row>
     <row r="26">
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>360.0942320440587</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="C28" t="n">
-        <v>360.0942320440587</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="D28" t="n">
-        <v>360.0942320440587</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="E28" t="n">
-        <v>230.7680935554559</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="F28" t="n">
-        <v>230.7680935554559</v>
+        <v>190.1647277445481</v>
       </c>
       <c r="G28" t="n">
         <v>190.1647277445481</v>
@@ -6379,25 +6379,25 @@
         <v>190.1647277445481</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116195</v>
+        <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422077</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P28" t="n">
         <v>1587.602350397713</v>
@@ -6406,28 +6406,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R28" t="n">
-        <v>1552.164719712908</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.164719712908</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T28" t="n">
-        <v>1346.966259596205</v>
+        <v>1340.098265033143</v>
       </c>
       <c r="U28" t="n">
-        <v>1076.424575903553</v>
+        <v>1069.556581340491</v>
       </c>
       <c r="V28" t="n">
-        <v>840.3270427914563</v>
+        <v>833.459048228395</v>
       </c>
       <c r="W28" t="n">
-        <v>569.4968278482859</v>
+        <v>562.6288332852246</v>
       </c>
       <c r="X28" t="n">
-        <v>360.0942320440587</v>
+        <v>353.2262374809975</v>
       </c>
       <c r="Y28" t="n">
-        <v>360.0942320440587</v>
+        <v>353.2262374809975</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
@@ -6464,19 +6464,19 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6494,13 +6494,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>480.6519212020128</v>
+        <v>572.4896639152508</v>
       </c>
       <c r="C31" t="n">
-        <v>480.6519212020128</v>
+        <v>422.1404360811342</v>
       </c>
       <c r="D31" t="n">
-        <v>349.1222368834673</v>
+        <v>422.1404360811342</v>
       </c>
       <c r="E31" t="n">
-        <v>349.1222368834673</v>
+        <v>378.6365114049414</v>
       </c>
       <c r="F31" t="n">
-        <v>349.1222368834673</v>
+        <v>378.6365114049414</v>
       </c>
       <c r="G31" t="n">
         <v>229.0481448185523</v>
@@ -6622,49 +6622,49 @@
         <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436549</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422078</v>
+        <v>562.148457242208</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968144</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104606</v>
+        <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397713</v>
+        <v>1587.602350397714</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066635</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.121352949931</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="U31" t="n">
-        <v>987.5796692572799</v>
+        <v>1281.623036020258</v>
       </c>
       <c r="V31" t="n">
-        <v>751.4821361451832</v>
+        <v>1045.525502908161</v>
       </c>
       <c r="W31" t="n">
-        <v>480.6519212020128</v>
+        <v>774.6952879649907</v>
       </c>
       <c r="X31" t="n">
-        <v>480.6519212020128</v>
+        <v>774.6952879649907</v>
       </c>
       <c r="Y31" t="n">
-        <v>480.6519212020128</v>
+        <v>572.4896639152508</v>
       </c>
     </row>
     <row r="32">
@@ -6695,49 +6695,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,7 +7333,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7348,13 +7348,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,25 +7567,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.2450418519869</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>384.6945110063437</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>373.8491954283779</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O3" t="n">
         <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4654202195568</v>
+        <v>133.1450665890763</v>
       </c>
       <c r="Q3" t="n">
         <v>138.9730561082392</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>129.5917403577181</v>
+        <v>256.9443198746411</v>
       </c>
       <c r="N6" t="n">
-        <v>249.7501596750565</v>
+        <v>118.4674613291452</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>56.65615996040509</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>279.3564343409292</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.15850139331501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>182.0340742867946</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>199.6230805871087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>223.6742649934479</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302122</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>108.0504791051477</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3029260153169934</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>99.76625292495957</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>128.7349406396091</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.9077496198974</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>7.280234771565915</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>10.088170041495</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338537</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037169</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
         <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>67.81873124381895</v>
       </c>
       <c r="H25" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>49.72990144215424</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094047</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092425</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.430894639085</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>148.8457355557754</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
         <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>107.8951507677267</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
         <v>130.5127428246838</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.5632668609404</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>81.15714296237906</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092425</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.430894639085</v>
+        <v>161.4308946390849</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037169</v>
+        <v>84.96399167428582</v>
       </c>
       <c r="F31" t="n">
         <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>29.2191317762594</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141965</v>
+        <v>92.0181599214196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094046</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>179.5197244407508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1224524.946647846</v>
+        <v>1224524.946647847</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26323,13 +26323,13 @@
         <v>195514.5298688544</v>
       </c>
       <c r="F2" t="n">
+        <v>195514.5298688545</v>
+      </c>
+      <c r="G2" t="n">
         <v>195514.5298688544</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>195514.5298688545</v>
-      </c>
-      <c r="H2" t="n">
-        <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
         <v>198146.709470115</v>
@@ -26338,7 +26338,7 @@
         <v>198146.709470115</v>
       </c>
       <c r="K2" t="n">
-        <v>198146.7094701149</v>
+        <v>198146.709470115</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
@@ -26366,13 +26366,13 @@
         <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189508</v>
+        <v>23645.34018189539</v>
       </c>
       <c r="D3" t="n">
-        <v>392050.2114169276</v>
+        <v>392050.2114169279</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.1991553677</v>
+        <v>562418.1991553672</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428184</v>
+        <v>14720.86843428189</v>
       </c>
       <c r="J3" t="n">
         <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750084</v>
+        <v>4807.454491750158</v>
       </c>
       <c r="L3" t="n">
-        <v>134293.1781648038</v>
+        <v>134293.1781648037</v>
       </c>
       <c r="M3" t="n">
-        <v>144178.071115143</v>
+        <v>144178.0711151429</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428184</v>
+        <v>14720.8684342819</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>319655.8297120242</v>
       </c>
       <c r="C4" t="n">
-        <v>312850.0144568525</v>
+        <v>312850.0144568523</v>
       </c>
       <c r="D4" t="n">
-        <v>195179.7627826592</v>
+        <v>195179.7627826591</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773396</v>
@@ -26439,13 +26439,13 @@
         <v>42487.3576891328</v>
       </c>
       <c r="J4" t="n">
-        <v>42487.3576891328</v>
+        <v>42487.35768913281</v>
       </c>
       <c r="K4" t="n">
-        <v>42487.35768913275</v>
+        <v>42487.35768913277</v>
       </c>
       <c r="L4" t="n">
-        <v>58851.27075905441</v>
+        <v>58851.27075905442</v>
       </c>
       <c r="M4" t="n">
         <v>58851.27075905443</v>
@@ -26454,10 +26454,10 @@
         <v>58851.27075905443</v>
       </c>
       <c r="O4" t="n">
-        <v>58851.27075905444</v>
+        <v>58851.27075905443</v>
       </c>
       <c r="P4" t="n">
-        <v>58851.27075905445</v>
+        <v>58851.27075905443</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>79865.16362346608</v>
+        <v>79865.16362346613</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>93534.2868092187</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248471.2701857926</v>
+        <v>-248471.2701857925</v>
       </c>
       <c r="C6" t="n">
-        <v>-181369.3195795101</v>
+        <v>-181369.3195795103</v>
       </c>
       <c r="D6" t="n">
-        <v>-461834.6953569822</v>
+        <v>-461834.6953569823</v>
       </c>
       <c r="E6" t="n">
-        <v>-495323.4787529638</v>
+        <v>-495420.9378789355</v>
       </c>
       <c r="F6" t="n">
-        <v>67094.72040240389</v>
+        <v>66997.26127643173</v>
       </c>
       <c r="G6" t="n">
-        <v>67094.72040240389</v>
+        <v>66997.26127643167</v>
       </c>
       <c r="H6" t="n">
-        <v>67094.72040240382</v>
+        <v>66997.26127643169</v>
       </c>
       <c r="I6" t="n">
-        <v>47404.19653748166</v>
+        <v>47333.05920752207</v>
       </c>
       <c r="J6" t="n">
-        <v>-1863.306574135277</v>
+        <v>-1934.443904094853</v>
       </c>
       <c r="K6" t="n">
-        <v>57317.61048001336</v>
+        <v>57246.47315005377</v>
       </c>
       <c r="L6" t="n">
-        <v>-85599.11227781253</v>
+        <v>-85599.11227781244</v>
       </c>
       <c r="M6" t="n">
-        <v>-95484.00522815167</v>
+        <v>-95484.00522815158</v>
       </c>
       <c r="N6" t="n">
-        <v>33973.19745270941</v>
+        <v>33973.19745270936</v>
       </c>
       <c r="O6" t="n">
         <v>48694.06588699132</v>
       </c>
       <c r="P6" t="n">
-        <v>48694.0658869912</v>
+        <v>48694.06588699129</v>
       </c>
     </row>
   </sheetData>
@@ -26704,13 +26704,13 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>345.3523731889754</v>
+        <v>345.3523731889758</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>636.6592415780663</v>
+        <v>636.6592415780667</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678834</v>
+        <v>49.73080458678828</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.40108554285237</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33951979354706</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>322.338990502186</v>
+        <v>322.3389905021862</v>
       </c>
       <c r="E3" t="n">
-        <v>485.0300322651249</v>
+        <v>485.0300322651245</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="D4" t="n">
-        <v>373.4172076263997</v>
+        <v>373.4172076263999</v>
       </c>
       <c r="E4" t="n">
-        <v>578.5544016755068</v>
+        <v>578.5544016755064</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.6793015905244</v>
+        <v>18.67930159052469</v>
       </c>
       <c r="L4" t="n">
         <v>373.4172076263997</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755066</v>
+        <v>578.5544016755064</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428523</v>
+        <v>18.40108554285236</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076263997</v>
+        <v>373.4172076263999</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755068</v>
+        <v>578.5544016755064</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.702500038285</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>110.1203092595405</v>
+        <v>145.8715095828775</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>162.313313380569</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,19 +27461,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.12455904281175</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>193.9480006552506</v>
       </c>
       <c r="U3" t="n">
-        <v>91.19658815820341</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>110.2395414103443</v>
       </c>
       <c r="T4" t="n">
-        <v>92.75589421154373</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
         <v>286.3186679929276</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252.8745740266878</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205949</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>323.1671650544055</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H5" t="n">
-        <v>75.28528753921178</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.2940166796957</v>
@@ -27713,7 +27713,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>113.1843084519808</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>58.65585098033438</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>79.20556636962887</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.9494798159088</v>
@@ -27792,13 +27792,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871616</v>
+        <v>3.0339784346721</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>85.69528886892783</v>
+        <v>3.464953594360566</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>325.2563498869366</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.9514780432985</v>
+        <v>156.9514780432984</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.65809879609651</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>177.3830154996372</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.0183419716299</v>
@@ -27910,13 +27910,13 @@
         <v>251.2345848079164</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>155.0735065112956</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6006837567287</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>18.47282275456877</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>6.938444724870521</v>
+        <v>167.3682127838557</v>
       </c>
       <c r="H10" t="n">
         <v>156.6902115077868</v>
@@ -28032,7 +28032,7 @@
         <v>136.7221855746496</v>
       </c>
       <c r="J10" t="n">
-        <v>49.32958329223571</v>
+        <v>49.32958329223565</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.0138349001591</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>149.2915415772896</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>38.60852399611426</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28804,13 +28804,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
     </row>
     <row r="32">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,13 +30220,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847965</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388351249000905</v>
+        <v>1.388351249000907</v>
       </c>
       <c r="H8" t="n">
-        <v>14.21845222883052</v>
+        <v>14.21845222883054</v>
       </c>
       <c r="I8" t="n">
-        <v>53.52441152710744</v>
+        <v>53.52441152710751</v>
       </c>
       <c r="J8" t="n">
-        <v>117.8345768198907</v>
+        <v>117.8345768198908</v>
       </c>
       <c r="K8" t="n">
-        <v>176.603485190099</v>
+        <v>176.6034851900992</v>
       </c>
       <c r="L8" t="n">
-        <v>219.0922397267105</v>
+        <v>219.0922397267108</v>
       </c>
       <c r="M8" t="n">
-        <v>243.7823312511303</v>
+        <v>243.7823312511306</v>
       </c>
       <c r="N8" t="n">
-        <v>247.7269842373542</v>
+        <v>247.7269842373545</v>
       </c>
       <c r="O8" t="n">
-        <v>233.9215665051014</v>
+        <v>233.9215665051017</v>
       </c>
       <c r="P8" t="n">
-        <v>199.6466450453916</v>
+        <v>199.6466450453918</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.9263159405466</v>
+        <v>149.9263159405468</v>
       </c>
       <c r="R8" t="n">
-        <v>87.21101914505317</v>
+        <v>87.21101914505329</v>
       </c>
       <c r="S8" t="n">
-        <v>31.63705408660815</v>
+        <v>31.6370540866082</v>
       </c>
       <c r="T8" t="n">
-        <v>6.077507592501465</v>
+        <v>6.077507592501473</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1110680999200724</v>
+        <v>0.1110680999200725</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7428334064819471</v>
+        <v>0.7428334064819481</v>
       </c>
       <c r="H9" t="n">
-        <v>7.17420684681249</v>
+        <v>7.174206846812499</v>
       </c>
       <c r="I9" t="n">
-        <v>25.57562386352318</v>
+        <v>25.57562386352322</v>
       </c>
       <c r="J9" t="n">
-        <v>70.1814667062615</v>
+        <v>70.1814667062616</v>
       </c>
       <c r="K9" t="n">
-        <v>119.951304940552</v>
+        <v>119.9513049405521</v>
       </c>
       <c r="L9" t="n">
-        <v>161.289332403021</v>
+        <v>161.2893324030212</v>
       </c>
       <c r="M9" t="n">
-        <v>188.2170433879916</v>
+        <v>188.2170433879918</v>
       </c>
       <c r="N9" t="n">
-        <v>193.1985884691797</v>
+        <v>193.19858846918</v>
       </c>
       <c r="O9" t="n">
-        <v>176.7389640413429</v>
+        <v>176.7389640413431</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8486002254869</v>
+        <v>141.8486002254871</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.82203272916925</v>
+        <v>94.82203272916938</v>
       </c>
       <c r="R9" t="n">
-        <v>46.12083202701073</v>
+        <v>46.12083202701079</v>
       </c>
       <c r="S9" t="n">
-        <v>13.79780472127651</v>
+        <v>13.79780472127653</v>
       </c>
       <c r="T9" t="n">
-        <v>2.994139914723286</v>
+        <v>2.994139914723289</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04887061884749654</v>
+        <v>0.0488706188474966</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6227665746030703</v>
+        <v>0.6227665746030711</v>
       </c>
       <c r="H10" t="n">
-        <v>5.536960999652756</v>
+        <v>5.536960999652764</v>
       </c>
       <c r="I10" t="n">
-        <v>18.7282893526087</v>
+        <v>18.72828935260873</v>
       </c>
       <c r="J10" t="n">
-        <v>44.02959682443706</v>
+        <v>44.02959682443713</v>
       </c>
       <c r="K10" t="n">
-        <v>72.3541529402476</v>
+        <v>72.3541529402477</v>
       </c>
       <c r="L10" t="n">
-        <v>92.58840510053285</v>
+        <v>92.58840510053297</v>
       </c>
       <c r="M10" t="n">
-        <v>97.62149132618855</v>
+        <v>97.62149132618867</v>
       </c>
       <c r="N10" t="n">
-        <v>95.30027045721354</v>
+        <v>95.30027045721367</v>
       </c>
       <c r="O10" t="n">
-        <v>88.02522456298674</v>
+        <v>88.02522456298685</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32078644108404</v>
+        <v>75.32078644108414</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.14820835153528</v>
+        <v>52.14820835153535</v>
       </c>
       <c r="R10" t="n">
-        <v>28.00184979987986</v>
+        <v>28.0018497998799</v>
       </c>
       <c r="S10" t="n">
-        <v>10.85312294103714</v>
+        <v>10.85312294103715</v>
       </c>
       <c r="T10" t="n">
-        <v>2.660911727849482</v>
+        <v>2.660911727849485</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03396908588744024</v>
+        <v>0.03396908588744028</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.679646369519427</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>234.0017634719808</v>
@@ -34793,7 +34793,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.679646369519445</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K6" t="n">
-        <v>134.6170405889698</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>127.3525795169231</v>
       </c>
       <c r="N6" t="n">
-        <v>131.2826983459112</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903813</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.8852874652782</v>
+        <v>105.8852874652783</v>
       </c>
       <c r="K8" t="n">
-        <v>280.6590467162832</v>
+        <v>280.6590467162835</v>
       </c>
       <c r="L8" t="n">
-        <v>400.9870393071737</v>
+        <v>400.987039307174</v>
       </c>
       <c r="M8" t="n">
-        <v>462.9496315166901</v>
+        <v>462.9496315166904</v>
       </c>
       <c r="N8" t="n">
-        <v>455.6608450527474</v>
+        <v>455.6608450527477</v>
       </c>
       <c r="O8" t="n">
-        <v>384.6235363461601</v>
+        <v>384.6235363461603</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2123574616047</v>
+        <v>290.2123574616049</v>
       </c>
       <c r="Q8" t="n">
-        <v>139.9356167260018</v>
+        <v>139.935616726002</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>69.43487538000365</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>246.5751029787716</v>
+        <v>246.5751029787717</v>
       </c>
       <c r="L9" t="n">
-        <v>393.575297926606</v>
+        <v>302.0913869640763</v>
       </c>
       <c r="M9" t="n">
-        <v>511.7880732159732</v>
+        <v>511.7880732159734</v>
       </c>
       <c r="N9" t="n">
-        <v>541.1992507294</v>
+        <v>541.1992507294002</v>
       </c>
       <c r="O9" t="n">
-        <v>428.005038873628</v>
+        <v>428.0050388736282</v>
       </c>
       <c r="P9" t="n">
-        <v>326.3369614510938</v>
+        <v>326.336961451094</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.998760036462743</v>
+        <v>164.917546378997</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08466111436475</v>
+        <v>50.08466111436485</v>
       </c>
       <c r="L10" t="n">
-        <v>120.178430360849</v>
+        <v>120.1784303608491</v>
       </c>
       <c r="M10" t="n">
-        <v>137.2053682880291</v>
+        <v>137.2053682880293</v>
       </c>
       <c r="N10" t="n">
-        <v>139.4324428364421</v>
+        <v>139.4324428364422</v>
       </c>
       <c r="O10" t="n">
-        <v>112.6103524770264</v>
+        <v>112.6103524770265</v>
       </c>
       <c r="P10" t="n">
-        <v>72.59934570597753</v>
+        <v>72.59934570597763</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>492.4584513372609</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36203,16 +36203,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>350.198519175048</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841786</v>
+        <v>30.90885570841792</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36528,13 +36528,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P25" t="n">
-        <v>196.7846861546531</v>
+        <v>196.7846861546532</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472709</v>
+        <v>57.62678551472715</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>374.2497035813871</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841786</v>
+        <v>30.90885570841792</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36765,13 +36765,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P28" t="n">
-        <v>196.7846861546531</v>
+        <v>196.7846861546532</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472709</v>
+        <v>57.62678551472715</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>374.2497035813871</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841786</v>
+        <v>30.90885570841792</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37002,13 +37002,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634552</v>
+        <v>254.6384370634553</v>
       </c>
       <c r="P31" t="n">
-        <v>196.7846861546531</v>
+        <v>196.7846861546532</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472709</v>
+        <v>57.62678551472715</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,7 +38105,7 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
@@ -38114,7 +38114,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
